--- a/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/Ear Surgery Instruments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pusher Device" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -384,13 +379,34 @@
   </si>
   <si>
     <t>Integra quote: MF-18652-011516.18N.pdf</t>
+  </si>
+  <si>
+    <t>Panetti 10-813-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panetti </t>
+  </si>
+  <si>
+    <t>suction dissector for ear drum, very fine, left</t>
+  </si>
+  <si>
+    <t>Panetti 10-804-12</t>
+  </si>
+  <si>
+    <t>suction dissector for atticus, double curved, 6mm</t>
+  </si>
+  <si>
+    <t>suction round knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +457,14 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,7 +549,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,6 +595,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -850,37 +877,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="23.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="56" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.5">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,12 +933,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -933,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J13" si="0">G3*$K$3</f>
+        <f t="shared" ref="J3:J16" si="0">G3*$K$3</f>
         <v>172.14000000000001</v>
       </c>
       <c r="K3" s="2">
@@ -943,7 +970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -974,440 +1001,474 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="47.25">
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="4">
         <f>658</f>
         <v>658</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
-        <f>D5*F5</f>
+      <c r="G7" s="4">
+        <f>D7*F7</f>
         <v>658</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>500.08</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:12" ht="48" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" ht="63">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D9" s="4">
         <f>658</f>
         <v>658</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <f>D6*F6</f>
+      <c r="G9" s="4">
+        <f>D9*F9</f>
         <v>658</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="J6" s="2">
+      <c r="H9" s="21"/>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>500.08</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:12">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D10" s="4">
         <f>472</f>
         <v>472</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <f>D7*F7</f>
+      <c r="G10" s="4">
+        <f>D10*F10</f>
         <v>472</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="J7" s="2">
+      <c r="H10" s="21"/>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>358.72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="11" spans="1:12" ht="31.5">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D11" s="2">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <v>90</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="12" spans="1:12">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D12" s="2">
         <v>75</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G12" s="2">
         <v>110</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>83.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="13" spans="1:12" ht="47.25">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D13" s="2">
         <v>274.5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <f>D10*F10</f>
+      <c r="G13" s="2">
+        <f>D13*F13</f>
         <v>274.5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>208.62</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="14" spans="1:12" ht="47.25">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D14" s="2">
         <v>274.5</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <f>D11*F11</f>
+      <c r="G14" s="2">
+        <f>D14*F14</f>
         <v>274.5</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>208.62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="15" spans="1:12" ht="31.5">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D15" s="2">
         <v>251.1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <f>D12*F12</f>
+      <c r="G15" s="2">
+        <f>D15*F15</f>
         <v>251.1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>190.83599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:12" ht="31.5">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D16" s="2">
         <v>51.3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <f>D13*F13</f>
+      <c r="G16" s="2">
+        <f>D16*F16</f>
         <v>51.3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>38.988</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="31.5">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="7">
-        <f>SUM(G3:G13)*$K$4</f>
+      <c r="G18" s="7">
+        <f>SUM(G3:G16)*$K$4</f>
         <v>3981.7809999999999</v>
       </c>
-      <c r="J15" s="7">
-        <f>SUM(J3:J13)*1.13</f>
+      <c r="J18" s="7">
+        <f>SUM(J3:J16)*1.13</f>
         <v>3026.1535599999988</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="18.75">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="20" spans="1:11">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D20" s="2">
         <v>80</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
-        <f>D17*F17</f>
+      <c r="G20" s="2">
+        <f>D20*F20</f>
         <v>320</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="2">
-        <f>G17*$K$3</f>
+      <c r="J20" s="2">
+        <f>G20*$K$3</f>
         <v>243.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="31.5">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="7">
-        <f>SUM(G17:G20)*$K$4</f>
+      <c r="G24" s="7">
+        <f>SUM(G20:G23)*$K$4</f>
         <v>361.59999999999997</v>
       </c>
-      <c r="J21" s="7">
-        <f>SUM(J17:J20)*1.13</f>
+      <c r="J24" s="7">
+        <f>SUM(J20:J23)*1.13</f>
         <v>274.81599999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="18.75">
+      <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="26" spans="1:11">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D26" s="2">
         <v>23465</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
-        <f>D23*F23</f>
+      <c r="G26" s="2">
+        <f>D26*F26</f>
         <v>23465</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="J23" s="2">
-        <f>G23*$K$3</f>
+      <c r="H26" s="3"/>
+      <c r="J26" s="2">
+        <f>G26*$K$3</f>
         <v>17833.400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="27" spans="1:11" s="7" customFormat="1">
+      <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="7">
-        <f>G23</f>
+      <c r="G27" s="7">
+        <f>G26</f>
         <v>23465</v>
       </c>
-      <c r="J24" s="7" t="e">
-        <f>J23+#REF!*1.13</f>
+      <c r="J27" s="7" t="e">
+        <f>J26+#REF!*1.13</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="28" spans="1:11" s="9" customFormat="1">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="9">
-        <f>SUM(G15, G21, G24)</f>
+      <c r="G28" s="9">
+        <f>SUM(G18, G24, G27)</f>
         <v>27808.381000000001</v>
       </c>
-      <c r="J25" s="9" t="e">
-        <f>SUM(J15, J21, J24)</f>
+      <c r="J28" s="9" t="e">
+        <f>SUM(J18, J24, J27)</f>
         <v>#REF!</v>
       </c>
-      <c r="K25" s="9" t="e">
-        <f>J25+#REF!</f>
+      <c r="K28" s="9" t="e">
+        <f>J28+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="2">
+    <row r="32" spans="1:11">
+      <c r="E32" s="2">
         <f>3000*0.69*1.13</f>
         <v>2339.1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="35" spans="1:7" ht="31.5">
+      <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="1:7">
+      <c r="B36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D36" s="2">
         <v>23465</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F36" s="2">
         <v>0.5</v>
       </c>
-      <c r="G33" s="2">
-        <f>D33*F33</f>
+      <c r="G36" s="2">
+        <f>D36*F36</f>
         <v>11732.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H7:H10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="11" customFormat="1">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -1415,7 +1476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -1423,7 +1484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -1431,7 +1492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1442,7 +1503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1450,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -1458,13 +1519,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="11" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="11" customFormat="1">
       <c r="B11" s="11" t="s">
         <v>55</v>
       </c>
@@ -1478,7 +1539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="63">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -1492,7 +1553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -1503,7 +1564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="78.75">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1520,29 +1581,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="21">
       <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="18.75">
       <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
@@ -1565,12 +1626,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
@@ -1584,7 +1645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
@@ -1595,7 +1656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="47.25">
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
@@ -1612,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="31.5">
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
@@ -1629,7 +1690,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1637,7 +1698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
@@ -1645,7 +1706,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1662,7 +1723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
@@ -1676,7 +1737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="2" t="s">
         <v>96</v>
       </c>
@@ -1684,7 +1745,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
@@ -1698,7 +1759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="2" t="s">
         <v>101</v>
       </c>
@@ -1709,7 +1770,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="2" t="s">
         <v>104</v>
       </c>

--- a/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Ear Surgery Instruments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pusher Device" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
   <si>
     <t>Description</t>
   </si>
@@ -47,43 +52,9 @@
     <t>Nitinol Tubing - NDC</t>
   </si>
   <si>
-    <t>19 Gauge Suction Cannula</t>
-  </si>
-  <si>
-    <t>T-Tube Inserter</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>http://www.mytamed.com/Rosen-Suction-Tubes-p/rosen-suction-tubes.htm</t>
-  </si>
-  <si>
-    <t>http://www.re-owned.com/itemcode-308656320-c3#.Vnytmd-rT-Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panetti - 10-800-12 </t>
-  </si>
-  <si>
-    <t>Suction dissector for ear drum single curved, left side, 3 mm</t>
-  </si>
-  <si>
-    <t>Panetti - 10-802-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction dissector for sinus tympani, double curved, backwards, left side, 6 mm </t>
-  </si>
-  <si>
-    <t>Panetti - 10-850-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connector </t>
-  </si>
-  <si>
-    <t>see email from Dr. James - 07-Jan-2016
-catalogue: http://entermedkno.mediastorm.nl/bestanden/380/Panetti%20Suction%20Instruments%20Set.pdf</t>
-  </si>
-  <si>
     <t>to be safe, 1800 budget</t>
   </si>
   <si>
@@ -109,27 +80,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sick Kids Quotation - Dr Adrian James - Jan 8 2016.pdf</t>
-  </si>
-  <si>
-    <t>Rosen Needle (small)</t>
-  </si>
-  <si>
-    <t>Rosen Needle (large)</t>
-  </si>
-  <si>
-    <t>KNIFE MCO5D MICROFRANCE SUCTION RND 2MM</t>
-  </si>
-  <si>
-    <t>KNIFE MCO5E MICROFRANCE SUCTION RND 3MM</t>
-  </si>
-  <si>
-    <t>PICK MCO989 180MM CVD MONOPOLAR LEGENT</t>
-  </si>
-  <si>
-    <t>CABLE CP391 1.8M MONOPOLAR</t>
   </si>
   <si>
     <t>Sub-Total + tax</t>
@@ -378,35 +328,44 @@
     <t>quote Number</t>
   </si>
   <si>
-    <t>Integra quote: MF-18652-011516.18N.pdf</t>
-  </si>
-  <si>
-    <t>Panetti 10-813-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panetti </t>
-  </si>
-  <si>
-    <t>suction dissector for ear drum, very fine, left</t>
-  </si>
-  <si>
-    <t>Panetti 10-804-12</t>
-  </si>
-  <si>
-    <t>suction dissector for atticus, double curved, 6mm</t>
-  </si>
-  <si>
-    <t>suction round knife</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Rosen Needle</t>
+  </si>
+  <si>
+    <t>N1705-2D</t>
+  </si>
+  <si>
+    <t>15-802-12</t>
+  </si>
+  <si>
+    <t>Suction dissector for sinus tympani, double curved, 6 mm, left</t>
+  </si>
+  <si>
+    <t>Suction dissector for atticus, double curved, 6 mm, left</t>
+  </si>
+  <si>
+    <t>15-804-12</t>
+  </si>
+  <si>
+    <t>10-813-12</t>
+  </si>
+  <si>
+    <t>10-814-12</t>
+  </si>
+  <si>
+    <t>Suction dissector for ear drum, single curved, very fine, right</t>
+  </si>
+  <si>
+    <t>Suction dissector for ear drum, single curved, very fine, left</t>
+  </si>
+  <si>
+    <t>Bausch and Lomb - Ronie.Wama@bausch.com (quote in sickkids email)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,12 +421,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -544,12 +512,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -593,15 +563,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -877,37 +846,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="56" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.5">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -921,526 +890,280 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="18.75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <f>75.5</f>
-        <v>75.5</v>
+        <v>64.83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <f>D3*F3</f>
-        <v>226.5</v>
+        <f>F3*D3</f>
+        <v>129.66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J16" si="0">G3*$K$3</f>
-        <v>172.14000000000001</v>
+        <f t="shared" ref="J3:J4" si="0">G3*$K$3</f>
+        <v>98.541600000000003</v>
       </c>
       <c r="K3" s="2">
         <v>0.76</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4">
-        <v>152.6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <f>D4*F4</f>
-        <v>457.79999999999995</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>347.928</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="31.5">
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="D5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="47.25">
-      <c r="B6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="D6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="48" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUM(G3:G13)*$K$4</f>
+        <v>146.51579999999998</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUM(J3:J13)*1.13</f>
+        <v>111.352008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <f>D17*F17</f>
+        <v>320</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
+        <f>G17*$K$3</f>
+        <v>243.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7">
+        <f>SUM(G17:G20)*$K$4</f>
+        <v>361.59999999999997</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUM(J17:J20)*1.13</f>
+        <v>274.81599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
-        <f>658</f>
-        <v>658</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23465</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <f>D7*F7</f>
-        <v>658</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>500.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="48" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" ht="63">
-      <c r="B9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4">
-        <f>658</f>
-        <v>658</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <f>D9*F9</f>
-        <v>658</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>500.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="2" t="s">
+      <c r="G23" s="2">
+        <f>D23*F23</f>
+        <v>23465</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="J23" s="2">
+        <f>G23*$K$3</f>
+        <v>17833.400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7">
+        <f>G23</f>
+        <v>23465</v>
+      </c>
+      <c r="J24" s="7" t="e">
+        <f>J23+#REF!*1.13</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4">
-        <f>472</f>
-        <v>472</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <f>D10*F10</f>
-        <v>472</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>358.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="31.5">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>90</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>75</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>110</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="47.25">
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
-        <v>274.5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <f>D13*F13</f>
-        <v>274.5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>208.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="47.25">
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2">
-        <v>274.5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <f>D14*F14</f>
-        <v>274.5</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>208.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="31.5">
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2">
-        <v>251.1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <f>D15*F15</f>
-        <v>251.1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>190.83599999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="31.5">
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2">
-        <v>51.3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <f>D16*F16</f>
-        <v>51.3</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>38.988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="31.5">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7">
-        <f>SUM(G3:G16)*$K$4</f>
-        <v>3981.7809999999999</v>
-      </c>
-      <c r="J18" s="7">
-        <f>SUM(J3:J16)*1.13</f>
-        <v>3026.1535599999988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="18.75">
-      <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>80</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2">
-        <f>D20*F20</f>
-        <v>320</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="2">
-        <f>G20*$K$3</f>
-        <v>243.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="31.5">
-      <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7">
-        <f>SUM(G20:G23)*$K$4</f>
-        <v>361.59999999999997</v>
-      </c>
-      <c r="J24" s="7">
-        <f>SUM(J20:J23)*1.13</f>
-        <v>274.81599999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="18.75">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2">
-        <v>23465</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <f>D26*F26</f>
-        <v>23465</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="J26" s="2">
-        <f>G26*$K$3</f>
-        <v>17833.400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1">
-      <c r="A27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="7">
-        <f>G26</f>
-        <v>23465</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <f>J26+#REF!*1.13</f>
+      <c r="G25" s="9">
+        <f>SUM(G15, G21, G24)</f>
+        <v>23973.1158</v>
+      </c>
+      <c r="J25" s="9" t="e">
+        <f>SUM(J15, J21, J24)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="9">
-        <f>SUM(G18, G24, G27)</f>
-        <v>27808.381000000001</v>
-      </c>
-      <c r="J28" s="9" t="e">
-        <f>SUM(J18, J24, J27)</f>
+      <c r="K25" s="9" t="e">
+        <f>J25+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K28" s="9" t="e">
-        <f>J28+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="E32" s="2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
         <f>3000*0.69*1.13</f>
         <v>2339.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31.5">
-      <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
         <v>23465</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.5</v>
       </c>
-      <c r="G36" s="2">
-        <f>D36*F36</f>
+      <c r="G33" s="2">
+        <f>D33*F33</f>
         <v>11732.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H7:H10"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -1448,131 +1171,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1">
-      <c r="B2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E14" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="11" customFormat="1">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1">
-      <c r="B11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="63">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="78.75">
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1581,207 +1304,207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="21">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="18.75">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="47.25">
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5">
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.5">
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Ear Surgery Instruments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="15" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pusher Device" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>Description</t>
   </si>
@@ -346,26 +341,41 @@
     <t>15-804-12</t>
   </si>
   <si>
-    <t>10-813-12</t>
-  </si>
-  <si>
-    <t>10-814-12</t>
-  </si>
-  <si>
     <t>Suction dissector for ear drum, single curved, very fine, right</t>
   </si>
   <si>
     <t>Suction dissector for ear drum, single curved, very fine, left</t>
   </si>
   <si>
-    <t>Bausch and Lomb - Ronie.Wama@bausch.com (quote in sickkids email)</t>
+    <t>15-813-12</t>
+  </si>
+  <si>
+    <t>15-814-12</t>
+  </si>
+  <si>
+    <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Panetti instrument quote 11-Jul-2017</t>
+  </si>
+  <si>
+    <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Panetti instrument quote 11-Jul-2018</t>
+  </si>
+  <si>
+    <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Panetti instrument quote 11-Jul-2019</t>
+  </si>
+  <si>
+    <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Panetti instrument quote 11-Jul-2020</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Rosen needle quote 11-Jul-2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,25 +430,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +480,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -519,21 +524,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,9 +561,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -846,317 +848,373 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="37.5">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="18.75">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>64.83</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <f>F3*D3</f>
         <v>129.66</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" ref="J3:J4" si="0">G3*$K$3</f>
         <v>98.541600000000003</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>0.76</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:12" ht="47.25">
+      <c r="B4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="J4" s="2">
+      <c r="D4" s="1">
+        <v>708</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G7" si="1">F4*D4</f>
+        <v>708</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+        <v>538.08000000000004</v>
+      </c>
+      <c r="K4" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:12" ht="47.25">
+      <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="D5" s="1">
+        <v>708</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="47.25">
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1">
+        <v>738</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="47.25">
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="D7" s="1">
+        <v>738</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="E8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="18">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G3:G7)</f>
+        <v>3021.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="31.5">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <f>SUM(G3:G13)*$K$4</f>
-        <v>146.51579999999998</v>
-      </c>
-      <c r="J15" s="7">
+        <v>6828.9515999999994</v>
+      </c>
+      <c r="J15" s="4">
         <f>SUM(J3:J13)*1.13</f>
-        <v>111.352008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+        <v>719.38240799999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="18.75">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:11">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>80</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f>D17*F17</f>
         <v>320</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f>G17*$K$3</f>
         <v>243.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="31.5">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <f>SUM(G17:G20)*$K$4</f>
         <v>361.59999999999997</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="4">
         <f>SUM(J17:J20)*1.13</f>
         <v>274.81599999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="18.75">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:11">
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>23465</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f>D23*F23</f>
         <v>23465</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="J23" s="2">
+      <c r="H23" s="2"/>
+      <c r="J23" s="1">
         <f>G23*$K$3</f>
         <v>17833.400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" s="4" customFormat="1">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <f>G23</f>
         <v>23465</v>
       </c>
-      <c r="J24" s="7" t="e">
+      <c r="J24" s="4" t="e">
         <f>J23+#REF!*1.13</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:11" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <f>SUM(G15, G21, G24)</f>
-        <v>23973.1158</v>
-      </c>
-      <c r="J25" s="9" t="e">
+        <v>30655.551599999999</v>
+      </c>
+      <c r="J25" s="6" t="e">
         <f>SUM(J15, J21, J24)</f>
         <v>#REF!</v>
       </c>
-      <c r="K25" s="9" t="e">
+      <c r="K25" s="6" t="e">
         <f>J25+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="2">
+    <row r="29" spans="1:11">
+      <c r="E29" s="1">
         <f>3000*0.69*1.13</f>
         <v>2339.1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:11" ht="31.5">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>23465</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <f>D33*F33</f>
         <v>11732.5</v>
       </c>
@@ -1171,127 +1229,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:5" s="8" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="63">
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63">
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="78.75">
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
@@ -1304,61 +1362,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="21">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="18.75">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
@@ -1368,8 +1426,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:8">
+      <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E5" t="s">
@@ -1379,11 +1437,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:8" ht="47.25">
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
@@ -1396,11 +1454,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:8" ht="31.5">
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D7" t="s">
@@ -1413,27 +1471,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D11" t="s">
@@ -1446,8 +1504,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:8" ht="31.5">
+      <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D12" t="s">
@@ -1460,16 +1518,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:8">
+      <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:8">
+      <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D14" t="s">
@@ -1482,22 +1540,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:8">
+      <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:8">
+      <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D16" t="s">

--- a/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
@@ -329,30 +329,18 @@
     <t>N1705-2D</t>
   </si>
   <si>
-    <t>15-802-12</t>
-  </si>
-  <si>
     <t>Suction dissector for sinus tympani, double curved, 6 mm, left</t>
   </si>
   <si>
     <t>Suction dissector for atticus, double curved, 6 mm, left</t>
   </si>
   <si>
-    <t>15-804-12</t>
-  </si>
-  <si>
     <t>Suction dissector for ear drum, single curved, very fine, right</t>
   </si>
   <si>
     <t>Suction dissector for ear drum, single curved, very fine, left</t>
   </si>
   <si>
-    <t>15-813-12</t>
-  </si>
-  <si>
-    <t>15-814-12</t>
-  </si>
-  <si>
     <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Panetti instrument quote 11-Jul-2017</t>
   </si>
   <si>
@@ -369,6 +357,18 @@
   </si>
   <si>
     <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Rosen needle quote 11-Jul-2017</t>
+  </si>
+  <si>
+    <t>10-802-12</t>
+  </si>
+  <si>
+    <t>10-804-12</t>
+  </si>
+  <si>
+    <t>10-813-12</t>
+  </si>
+  <si>
+    <t>10-814-12</t>
   </si>
 </sst>
 </file>
@@ -848,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -860,7 +860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -911,10 +911,10 @@
     </row>
     <row r="3" spans="1:12" ht="31.5">
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>64.83</v>
@@ -930,7 +930,7 @@
         <v>129.66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J4" si="0">G3*$K$3</f>
@@ -945,10 +945,10 @@
     </row>
     <row r="4" spans="1:12" ht="47.25">
       <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D4" s="1">
         <v>708</v>
@@ -961,7 +961,7 @@
         <v>708</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -976,10 +976,10 @@
     </row>
     <row r="5" spans="1:12" ht="47.25">
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
         <v>708</v>
@@ -992,15 +992,15 @@
         <v>708</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="47.25">
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1">
         <v>738</v>
@@ -1013,15 +1013,15 @@
         <v>738</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="47.25">
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>738</v>
@@ -1034,12 +1034,12 @@
         <v>738</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="E8" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F8" s="18">
         <v>6</v>

--- a/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
@@ -359,9 +359,6 @@
     <t>C:\Users\arushri swarup\Documents\GitHub\Grad-School\Ear Surgery Instruments\Quotes\Rosen needle quote 11-Jul-2017</t>
   </si>
   <si>
-    <t>10-802-12</t>
-  </si>
-  <si>
     <t>10-804-12</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>10-814-12</t>
+  </si>
+  <si>
+    <t>10-802-02</t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -945,7 +945,7 @@
     </row>
     <row r="4" spans="1:12" ht="47.25">
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>101</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="5" spans="1:12" ht="47.25">
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>102</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="6" spans="1:12" ht="47.25">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>104</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="7" spans="1:12" ht="47.25">
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>

--- a/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 09-May-2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
+    <workbookView xWindow="15" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -290,9 +290,6 @@
     <t>ss</t>
   </si>
   <si>
-    <t>89965K451</t>
-  </si>
-  <si>
     <t>8988K35</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>1.24mm OD</t>
   </si>
   <si>
-    <t>5/16in OD</t>
-  </si>
-  <si>
     <t>3/32in, 2-56</t>
   </si>
   <si>
@@ -369,6 +363,36 @@
   </si>
   <si>
     <t>10-802-02</t>
+  </si>
+  <si>
+    <t>to order</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/cart/view.html/ref=nav_cart</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Home Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/16X0.049in </t>
+  </si>
+  <si>
+    <t>to print/make</t>
+  </si>
+  <si>
+    <t>3 ft</t>
+  </si>
+  <si>
+    <t>21.57 USD</t>
+  </si>
+  <si>
+    <t>CAD 32.25</t>
+  </si>
+  <si>
+    <t>3 pairs</t>
   </si>
 </sst>
 </file>
@@ -431,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +516,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -524,7 +560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -568,6 +604,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -848,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -911,10 +957,10 @@
     </row>
     <row r="3" spans="1:12" ht="31.5">
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1">
         <v>64.83</v>
@@ -930,7 +976,7 @@
         <v>129.66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J4" si="0">G3*$K$3</f>
@@ -945,10 +991,10 @@
     </row>
     <row r="4" spans="1:12" ht="47.25">
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <v>708</v>
@@ -961,7 +1007,7 @@
         <v>708</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -976,10 +1022,10 @@
     </row>
     <row r="5" spans="1:12" ht="47.25">
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>708</v>
@@ -992,15 +1038,15 @@
         <v>708</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="47.25">
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>738</v>
@@ -1013,15 +1059,15 @@
         <v>738</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="47.25">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
         <v>738</v>
@@ -1034,12 +1080,12 @@
         <v>738</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="E8" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="18">
         <v>6</v>
@@ -1363,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1392,7 +1438,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>58</v>
@@ -1420,7 +1466,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -1434,24 +1480,30 @@
         <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="47.25">
-      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="47.25">
+      <c r="B6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="21" t="s">
         <v>75</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.5">
@@ -1462,28 +1514,39 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1">
+      <c r="B9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="23"/>
+      <c r="E9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="24" customFormat="1">
+      <c r="B10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1495,13 +1558,10 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.5">
@@ -1509,7 +1569,7 @@
         <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
@@ -1518,11 +1578,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:8" s="24" customFormat="1">
+      <c r="B13" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="26"/>
+      <c r="E13" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1531,7 +1592,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
@@ -1559,10 +1620,20 @@
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
